--- a/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
+++ b/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="191">
   <si>
     <t>SLNo</t>
   </si>
@@ -189,15 +189,6 @@
     <t>6.2 Is this household part of the new single arm EE cohort?  (if 6.2 is 1) Mark the cap of the stool collection containersin this household with * to show that this household is in the single arm EE cohort.</t>
   </si>
   <si>
-    <t>frmmessage</t>
-  </si>
-  <si>
-    <t>AvBwW</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>q8</t>
   </si>
   <si>
@@ -532,6 +523,131 @@
   </si>
   <si>
     <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>q5_1</t>
+  </si>
+  <si>
+    <t>q5_2</t>
+  </si>
+  <si>
+    <t>q5_3</t>
+  </si>
+  <si>
+    <t>q5_4</t>
+  </si>
+  <si>
+    <t>q5_5</t>
+  </si>
+  <si>
+    <t>1.T1 Target child (parasite cohort)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Uv‡M©U wkï </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t xml:space="preserve"> (c¨vivmvBU †Kvn©U)</t>
+    </r>
+  </si>
+  <si>
+    <t>2.T2 Target child twin (parasite cohort)</t>
+  </si>
+  <si>
+    <t>3.C1 18-27 months baseline child (parasite cohort)</t>
+  </si>
+  <si>
+    <t>4.O1 5-12 yr old child 1 (parasite cohort)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.Uv‡M©U wkï </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t xml:space="preserve"> (RgR) (c¨vivmvBU †Kvn©U)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.18-27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t>gv‡mi ‡eRjvBb wkï (c¨vivmvBU †Kvn©U)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.5-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SutonnyMJ"/>
+      </rPr>
+      <t>eQi eq‡mi wkï (c¨vivmvBU †Kvn©U)]</t>
+    </r>
+  </si>
+  <si>
+    <t>5.15 eQ‡ii AwaK eq‡mi wkï (GmwUGBP †Kvn©U)</t>
+  </si>
+  <si>
+    <t>5.A1 15+ individual 1 (STH cohort)</t>
+  </si>
+  <si>
+    <t>tblMainQuesL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.‡hme e¨w³i KvQ †_‡K GLb bgybv msMÖn Kiv n‡”Q Zv‡`i cÖ‡Z¨‡Ki Avjv`v Avjv`v AvBwW wbev©Pb Kiæb  (GKwU AvBwW wbev©Pb Kiæb)    </t>
+  </si>
+  <si>
+    <t>7.Select the ID of the individual whose sample you are collecting now (select one)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -866,7 +982,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,12 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -977,6 +1088,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK423"/>
   <sheetViews>
-    <sheetView topLeftCell="P24" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1637,21 +1752,21 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>170</v>
+      <c r="R2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V2" s="22" t="str">
         <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','frmdataid', 'tblMainQues','1-2.K¬v÷vi AvBwW I gv‡qi  AvBwW','1-2.Cluster ID and  Mother ID ','','q3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
-    <row r="3" spans="1:115" ht="75">
+    <row r="3" spans="1:115" ht="90">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -1682,14 +1797,14 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T3" s="50" t="s">
-        <v>170</v>
+      <c r="R3" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V3" s="22" t="str">
         <f t="shared" ref="V3:V27" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
@@ -1727,21 +1842,21 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S4" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T4" s="50" t="s">
-        <v>170</v>
+      <c r="R4" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V4" s="22" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'q4','frmdate', 'tblMainQues','4.bgybv msMÖ‡ni ZvwiL ','4. Data of sample collection ','','q5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
-    <row r="5" spans="1:115" ht="94.5">
+    <row r="5" spans="1:115" ht="105">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -1772,14 +1887,14 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S5" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T5" s="50" t="s">
-        <v>170</v>
+      <c r="R5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1817,14 +1932,14 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T6" s="50" t="s">
-        <v>170</v>
+      <c r="R6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1862,38 +1977,38 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T7" s="50" t="s">
-        <v>170</v>
+      <c r="R7" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q6_2','frmsinglechoice', 'tblMainQues','6.2.D³ LvbvwU bZzb BB wm‡½j Av‡g©i AšÍ©fz³ wK bv? (6.2 Gi DËi 1 n‡j) D³ LvbvwU bZzb BB wm‡½j Av‡g©i AšÍ©fz³Õ wn‡m‡e wb‡`©k Ki‡Z ev †evSv‡Z msMÖnK…Z ÷zj K‡›UBbv‡ii wQwci Dci ZviKv wPý (*) emvb ','6.2 Is this household part of the new single arm EE cohort?  (if 6.2 is 1) Mark the cap of the stool collection containersin this household with * to show that this household is in the single arm EE cohort.','','q7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
-    <row r="8" spans="1:115" ht="75.75">
+    <row r="8" spans="1:115" ht="90">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1904,41 +2019,41 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S8" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T8" s="50" t="s">
-        <v>170</v>
+      <c r="R8" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V8" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmmessage', '','AvBwW','ID','','q8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:115" ht="78.75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmcombobox', '','7.‡hme e¨w³i KvQ †_‡K GLb bgybv msMÖn Kiv n‡”Q Zv‡`i cÖ‡Z¨‡Ki Avjv`v Avjv`v AvBwW wbev©Pb Kiæb  (GKwU AvBwW wbev©Pb Kiæb)    ','7.Select the ID of the individual whose sample you are collecting now (select one)','','q8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:115" ht="105">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>63</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1949,35 +2064,41 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S9" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" s="50" t="s">
-        <v>170</v>
+      <c r="R9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V9" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q8','frmtext', 'tblMainQues','8. Abyhvqx cÖ‡Z¨K e¨w³i bvg wjLyb ( †W-1 wUg †_‡K cÖvß AvBwW ZvwjKvi mv‡_ D³ AvBwW¸‡jv wgwj‡q wbb|)','8.Enter the name of the individual (check against your ID list from Day1 team)','','q9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:115" ht="75.75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'q8','frmtext', 'tblMainQuesL','8. Abyhvqx cÖ‡Z¨K e¨w³i bvg wjLyb ( †W-1 wUg †_‡K cÖvß AvBwW ZvwjKvi mv‡_ D³ AvBwW¸‡jv wgwj‡q wbb|)','8.Enter the name of the individual (check against your ID list from Day1 team)','','q9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:115" ht="90.75">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="E10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>67</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1988,41 +2109,41 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S10" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T10" s="50" t="s">
-        <v>170</v>
+      <c r="R10" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q9','', '','9.D³ e¨w³ †_‡K gj/cvqLvbvi bgybv msMÖn Kiv n‡q‡Q wK?','9.Has a stool sample been collected from this individual?','','q10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'q9','frmsinglechoice', 'tblMainQuesL','9.D³ e¨w³ †_‡K gj/cvqLvbvi bgybv msMÖn Kiv n‡q‡Q wK?','9.Has a stool sample been collected from this individual?','','q10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:115" ht="90">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -2033,41 +2154,41 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T11" s="50" t="s">
-        <v>170</v>
+      <c r="R11" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V11" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q10','frmsinglechoice', 'tblMainQues','10.‡Kb cvqLvbvi bgybv msMÖn Kiv hvqwb?','10.Why has a stool sample not been collected?  ','','q11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'q10','frmsinglechoice', 'tblMainQuesL','10.‡Kb cvqLvbvi bgybv msMÖn Kiv hvqwb?','10.Why has a stool sample not been collected?  ','','q11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:115" ht="90">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -2078,41 +2199,41 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T12" s="50" t="s">
-        <v>170</v>
+      <c r="R12" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V12" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q11','frmsinglechoice', 'tblMainQues','11.(ch©‡eÿb Kiæb) D³ e¨w³/wkï cv‡q RyZv c‡o‡Q wK?','11. (obs) Is the individual wearing shoes? ','','q12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'q11','frmsinglechoice', 'tblMainQuesL','11.(ch©‡eÿb Kiæb) D³ e¨w³/wkï cv‡q RyZv c‡o‡Q wK?','11. (obs) Is the individual wearing shoes? ','','q12','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:115" ht="90">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2123,41 +2244,41 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T13" s="50" t="s">
-        <v>170</v>
+      <c r="R13" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V13" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q12','frmyeartomin', 'tblMainQues','12.msM„nxZ bgybv Kyje‡• ivLvi ïiæi mgqUv wjwce× Kiæb (24 N›Uv wnmv‡e)','12.Enter the cold chain start time  (24-hr scale)','','q13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'q12','frmyeartomin', 'tblMainQuesL','12.msM„nxZ bgybv Kyje‡• ivLvi ïiæi mgqUv wjwce× Kiæb (24 N›Uv wnmv‡e)','12.Enter the cold chain start time  (24-hr scale)','','q13','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:115" ht="90">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -2168,41 +2289,41 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S14" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>170</v>
+      <c r="R14" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V14" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q13','frmsinglechoice', 'tblMainQues','13.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi w`b wjwce× Kiæb','13.Enter the day of defecation','','q14','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'q13','frmsinglechoice', 'tblMainQuesL','13.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi w`b wjwce× Kiæb','13.Enter the day of defecation','','q14','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:115" ht="105">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>97</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -2213,41 +2334,41 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S15" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T15" s="50" t="s">
-        <v>170</v>
+      <c r="R15" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V15" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q14','frmyeartomin', 'tblMainQues','14.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi mgq wjwce× Kiæb (24 N›Uv wnmv‡e, Rvwb bv n‡j 99:99 emvb)','14.Enter the time of defecation (24-hr scale, enter 99:99 for DK)','','q16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:115" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q14','frmyeartomin', 'tblMainQuesL','14.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi mgq wjwce× Kiæb (24 N›Uv wnmv‡e, Rvwb bv n‡j 99:99 emvb)','14.Enter the time of defecation (24-hr scale, enter 99:99 for DK)','','q16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:115" ht="90">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -2258,41 +2379,41 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S16" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T16" s="50" t="s">
-        <v>170</v>
+      <c r="R16" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V16" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q15','frmsinglechoice', 'tblMainQues','15.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi w`b wjwce× Kiæb','15.Enter the approximate time of defecation','','q16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q15','frmsinglechoice', 'tblMainQuesL','15.e¨w³/wkïi cvqLvbv ev gj Z¨vM Kivi w`b wjwce× Kiæb','15.Enter the approximate time of defecation','','q16','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="90">
       <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -2303,41 +2424,41 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S17" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T17" s="50" t="s">
-        <v>170</v>
+      <c r="R17" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V17" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q16','frmsinglechoice', 'tblMainQues','16.(ch©‡eÿb Kiæb) cvqLvbvi aib †Kgb?','16.16. (obs) Stool consistency','','q17','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q16','frmsinglechoice', 'tblMainQuesL','16.(ch©‡eÿb Kiæb) cvqLvbvi aib †Kgb?','16.16. (obs) Stool consistency','','q17','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="90">
       <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2348,18 +2469,18 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T18" s="50" t="s">
-        <v>170</v>
+      <c r="R18" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V18" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q17','frmsinglechoice', 'tblMainQues','17.(ch©‡eÿb Kiæb) cvqLvbvi eb© wK?','17.17. (obs) Stool color','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q17','frmsinglechoice', 'tblMainQuesL','17.(ch©‡eÿb Kiæb) cvqLvbvi eb© wK?','17.17. (obs) Stool color','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="75.75">
@@ -2367,22 +2488,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>134</v>
+        <v>183</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -2393,41 +2514,41 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S19" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T19" s="50" t="s">
-        <v>170</v>
+      <c r="R19" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V19" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17_other','frmtext', 'tblMainQues','17.Ab¨vY¨t wbw`©ó K‡i wjLyb','17.Other: Specify','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="78.75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q17_other','frmtext', 'tblMainQuesL','17.Ab¨vY¨t wbw`©ó K‡i wjLyb','17.Other: Specify','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="105">
       <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2438,18 +2559,18 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S20" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T20" s="50" t="s">
-        <v>170</v>
+      <c r="R20" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V20" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmsinglechoice', 'tblMainQues','18. (ch©‡eÿb Kiæb) msM„nxZ cvqLvbvi bgybvi g‡a¨ A¯^vfvweK wKQz †`Lv †M‡Q wK? (cÖ‡hvR¨ me¸‡jv Ackb wbev©Pb Kiæb)','18.(obs) Do you see any abnormal characteristics of the collected stool sample? (Select all that apply)','','q19','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q18','frmsinglechoice', 'tblMainQuesL','18. (ch©‡eÿb Kiæb) msM„nxZ cvqLvbvi bgybvi g‡a¨ A¯^vfvweK wKQz †`Lv †M‡Q wK? (cÖ‡hvR¨ me¸‡jv Ackb wbev©Pb Kiæb)','18.(obs) Do you see any abnormal characteristics of the collected stool sample? (Select all that apply)','','q19','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="75.75">
@@ -2457,23 +2578,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>150</v>
+        <v>183</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="45"/>
+        <v>148</v>
+      </c>
+      <c r="G21" s="40"/>
       <c r="H21" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2484,18 +2605,18 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S21" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T21" s="50" t="s">
-        <v>170</v>
+      <c r="R21" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V21" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q18_other','frmtext', 'tblMainQues','18.Ab¨vY¨t wbw`©ó K‡i wjLyb','18.Other: Specify','','q19','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q18_other','frmtext', 'tblMainQuesL','18.Ab¨vY¨t wbw`©ó K‡i wjLyb','18.Other: Specify','','q19','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="141.75">
@@ -2503,22 +2624,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2529,41 +2650,41 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S22" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T22" s="50" t="s">
-        <v>170</v>
+      <c r="R22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V22" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q19','frmtext', 'tblMainQues','19.wbwðZ Kiæb †h cvqLvbvi bgybv cixÿv Kivi Rb¨ Avcwb K¨v‡Uv-K¨vUR GwjKU ˆZix K‡i‡Qb Ges K¨v‡Uv-K¨vUR GwjK‡Ui Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q| ','19.Make sure that you have prepared a Kato-Katz aliquot for this individual and make sure that the sample ID and random ID of the barcode on the Kato-Katz aliquot match the following:','','q21','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q19','frmtext', 'tblMainQuesL','19.wbwðZ Kiæb †h cvqLvbvi bgybv cixÿv Kivi Rb¨ Avcwb K¨v‡Uv-K¨vUR GwjKU ˆZix K‡i‡Qb Ges K¨v‡Uv-K¨vUR GwjK‡Ui Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q| ','19.Make sure that you have prepared a Kato-Katz aliquot for this individual and make sure that the sample ID and random ID of the barcode on the Kato-Katz aliquot match the following:','','q21','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="90">
       <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2574,41 +2695,41 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S23" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T23" s="50" t="s">
-        <v>170</v>
+      <c r="R23" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V23" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q20','frmsinglechoice', 'tblMainQues','20.D³ e¨w³/ wkï †_‡K i‡³i bgybv msMÖn Kiv n‡q‡Q wK?','20.a blood sample been collected from this individual?','','q22','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q20','frmsinglechoice', 'tblMainQuesL','20.D³ e¨w³/ wkï †_‡K i‡³i bgybv msMÖn Kiv n‡q‡Q wK?','20.a blood sample been collected from this individual?','','q22','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="90">
       <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -2619,41 +2740,41 @@
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S24" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T24" s="50" t="s">
-        <v>170</v>
+      <c r="R24" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S24" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V24" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q21','frmsinglechoice', 'tblMainQues','21.‡Kb i‡³i bgybv msMÖn Kiv hvqwb?','21.Why has a blood sample not been collected?','','q22','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="115.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q21','frmsinglechoice', 'tblMainQuesL','21.‡Kb i‡³i bgybv msMÖn Kiv hvqwb?','21.Why has a blood sample not been collected?','','q22','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="120">
       <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>160</v>
-      </c>
       <c r="F25" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -2664,41 +2785,41 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S25" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T25" s="50" t="s">
-        <v>170</v>
+      <c r="R25" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V25" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q22','frmtext', 'tblMainQues','22.wbwðZ Kiæb eøvW ¯úU wdëvi †ccv‡ii Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q|','22.Make sure that the sample ID and random ID of the barcode on the blood spot filter paper match the following:','','q23','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="78.75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q22','frmtext', 'tblMainQuesL','22.wbwðZ Kiæb eøvW ¯úU wdëvi †ccv‡ii Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q|','22.Make sure that the sample ID and random ID of the barcode on the blood spot filter paper match the following:','','q23','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="105">
       <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -2709,38 +2830,38 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S26" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T26" s="50" t="s">
-        <v>170</v>
+      <c r="R26" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V26" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q23','frmnumeric', 'tblMainQues','23.wdëvi †ccv‡i i‡³i Kq‡dvUv bgybv msMÖn Kiv n‡q‡Q Zvi msL¨v wjLyb (msL¨v 1 †_‡K 6 Gi g‡a¨ n‡e)','23.Enter the number of spots filled (has to be between 1 and 6)','','q24','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q23','frmnumeric', 'tblMainQuesL','23.wdëvi †ccv‡i i‡³i Kq‡dvUv bgybv msMÖn Kiv n‡q‡Q Zvi msL¨v wjLyb (msL¨v 1 †_‡K 6 Gi g‡a¨ n‡e)','23.Enter the number of spots filled (has to be between 1 and 6)','','q24','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="90">
       <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>168</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27"/>
@@ -2752,18 +2873,18 @@
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S27" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="T27" s="50" t="s">
-        <v>170</v>
+      <c r="R27" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="V27" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q24','frmnumeric', 'tblMainQues','24. A¨vwbwgqv †U‡÷i djvdj wjLyb ','24.Enter the result of the anemia test. __ __. __ g/dL','','','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q24','frmnumeric', 'tblMainQuesL','24. A¨vwbwgqv †U‡÷i djvdj wjLyb ','24.Enter the result of the anemia test. __ __. __ g/dL','','','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -9887,10 +10008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1243"/>
+  <dimension ref="A1:G1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9927,977 +10048,1127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="45.75">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>49</v>
+      <c r="B2" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>173</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" s="22" t="str">
         <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A2&amp;"','" &amp;B2&amp;"', '" &amp;D2&amp;"','" &amp;C2&amp;"','" &amp;E2&amp;"','"&amp;F2&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1','q6_1', '1 Yes ','1.n¨v','1','');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('1','q5_1', '1.T1 Target child (parasite cohort)','1.Uv‡M©U wkï 1 (c¨vivmvBU †Kvn©U)','1','');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="45.75">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="B3" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="46">
+        <v>1</v>
       </c>
       <c r="G3" s="22" t="str">
-        <f t="shared" ref="G3:G40" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q6_1', '2 No  ','2.bv','2','');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="51">
+        <f t="shared" ref="G3:G5" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','q5_2', '2.T2 Target child twin (parasite cohort)','2.Uv‡M©U wkï 2 (RgR) (c¨vivmvBU †Kvn©U)','1','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="60">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="36">
+      <c r="B4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="46">
         <v>1</v>
       </c>
       <c r="G4" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q6_2', '1 Yes ','1.n¨v','1','');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="51">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('3','q5_3', '3.C1 18-27 months baseline child (parasite cohort)','3.18-27 gv‡mi ‡eRjvBb wkï (c¨vivmvBU †Kvn©U)','1','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="45">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="36">
-        <v>2</v>
+      <c r="B5" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
       </c>
       <c r="G5" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q6_2', '2 No  ','2.bv','2','');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="51">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','q5_4', '4.O1 5-12 yr old child 1 (parasite cohort)','4.5-12 eQi eq‡mi wkï (c¨vivmvBU †Kvn©U)]','1','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="45.75">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="str">
+        <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A6&amp;"','" &amp;B6&amp;"', '" &amp;D6&amp;"','" &amp;C6&amp;"','" &amp;E6&amp;"','"&amp;F6&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q5_5', '5.A1 15+ individual 1 (STH cohort)','5.15 eQ‡ii AwaK eq‡mi wkï (GmwUGBP †Kvn©U)','1','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="46">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A7&amp;"','" &amp;B7&amp;"', '" &amp;D7&amp;"','" &amp;C7&amp;"','" &amp;E7&amp;"','"&amp;F7&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q6_1', '1 Yes ','1.n¨v','1','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f t="shared" ref="G8:G50" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A8&amp;"','" &amp;B8&amp;"', '" &amp;D8&amp;"','" &amp;C8&amp;"','" &amp;E8&amp;"','"&amp;F8&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q6_1', '2 No  ','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="46">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q6_2', '1 Yes ','1.n¨v','1','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="46">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q6_2', '2 No  ','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="30">
+      <c r="A11" s="46">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q7', 'T1','T1','1','');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" ht="30">
+      <c r="A12" s="46">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q7', 'T2','T2','1','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="46" customFormat="1" ht="30">
+      <c r="A13" s="46">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q7', 'C1','C1','1','');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="46" customFormat="1" ht="30">
+      <c r="A14" s="46">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q7', 'O1','O1','1','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" ht="30">
+      <c r="A15" s="46">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="48">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q7', 'A1','A1','1','');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="46">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="G16" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q9', '1 Yes ','1.n¨v','1','q11');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="46">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="38">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q9', '2 No  ','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45.75">
+      <c r="A18" s="46">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q10', '1.Subject not available','1.D³ e¨w³ Dcw¯’Z wQj bv','1','q20');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45.75">
+      <c r="A19" s="46">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q10', '2.Subject not cooperative','2.D³ e¨w³ mn‡hvwMZv K‡iwb','2','q20');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45.75">
+      <c r="A20" s="46">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q10', '3.Sample not available','3.bgybv cvIqv hvqwb','3','q20');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75">
+      <c r="A21" s="46">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q10', '4.Other','4.Ab¨vb¨','4','q20');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="46">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E22" s="38">
         <v>1</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','q9', '1 Yes ','1.n¨v','1','q11');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="51">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40" t="s">
+      <c r="G22" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q11', '1 Yes ','1.n¨v','1','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="46">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E23" s="38">
         <v>2</v>
       </c>
-      <c r="G7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('6','q9', '2 No  ','2.bv','2','');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75">
-      <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','q10', '1.Subject not available','1.D³ e¨w³ Dcw¯’Z wQj bv','1','q20');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.75">
-      <c r="A9" s="51">
-        <v>8</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','q10', '2.Subject not cooperative','2.D³ e¨w³ mn‡hvwMZv K‡iwb','2','q20');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.75">
-      <c r="A10" s="51">
-        <v>9</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','q10', '3.Sample not available','3.bgybv cvIqv hvqwb','3','q20');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30.75">
-      <c r="A11" s="51">
-        <v>10</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','q10', '4.Other','4.Ab¨vb¨','4','q20');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="51">
-        <v>11</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q11', '1 Yes ','1.n¨v','1','');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="51">
-        <v>12</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="40">
-        <v>2</v>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','q11', '2 No  ','2.bv','2','');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75">
-      <c r="A14" s="51">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="G23" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q11', '2 No  ','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30.75">
+      <c r="A24" s="46">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','q13', '1.Today','1.AvR','1','');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.75">
-      <c r="A15" s="51">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('14','q13', '2.Yesterday','2.MZKvj','2','');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30.75">
-      <c r="A16" s="51">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','q15', '1.Morning','1.mKvj','1','');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30.75">
-      <c r="A17" s="51">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','q15', '2.Noon','2.`ycyi','2','');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30.75">
-      <c r="A18" s="51">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','q15', '3.Afternoon','3.weKvj','3','');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30.75">
-      <c r="A19" s="51">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="G19" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','q15', '4.Evening','4.mÜ¨v','4','');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30.75">
-      <c r="A20" s="51">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('19','q15', '5.Night','5.ivZ','5','');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30.75">
-      <c r="A21" s="51">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('20','q16', '1.Unformed, watery','1.AmsMwVZ, Zij','1','');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30.75">
-      <c r="A22" s="51">
-        <v>21</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','q16', '2.Formed, soft, moist','2.msMwVZ, big, ‡fRv','2','');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30.75">
-      <c r="A23" s="51">
-        <v>22</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('22','q16', '3.Formed, hard, dry','3.msMwVZ, k³, ïKbv','3','');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30.75">
-      <c r="A24" s="51">
-        <v>23</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>123</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q17', '1.Yellow','1.njy`','1','');</v>
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','q13', '1.Today','1.AvR','1','');</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30.75">
-      <c r="A25" s="51">
+      <c r="A25" s="46">
         <v>24</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>124</v>
+      <c r="B25" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="G25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q17', '2.Brown','2.ev`vgx','2','');</v>
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','q13', '2.Yesterday','2.MZKvj','2','');</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75">
-      <c r="A26" s="51">
+      <c r="A26" s="46">
         <v>25</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q15', '1.Morning','1.mKvj','1','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30.75">
+      <c r="A27" s="46">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q15', '2.Noon','2.`ycyi','2','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30.75">
+      <c r="A28" s="46">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q15', '3.Afternoon','3.weKvj','3','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30.75">
+      <c r="A29" s="46">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="G29" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('28','q15', '4.Evening','4.mÜ¨v','4','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30.75">
+      <c r="A30" s="46">
+        <v>29</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('29','q15', '5.Night','5.ivZ','5','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45.75">
+      <c r="A31" s="46">
+        <v>30</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('30','q16', '1.Unformed, watery','1.AmsMwVZ, Zij','1','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45.75">
+      <c r="A32" s="46">
+        <v>31</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('31','q16', '2.Formed, soft, moist','2.msMwVZ, big, ‡fRv','2','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45.75">
+      <c r="A33" s="46">
+        <v>32</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('32','q16', '3.Formed, hard, dry','3.msMwVZ, k³, ïKbv','3','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30.75">
+      <c r="A34" s="46">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('33','q17', '1.Yellow','1.njy`','1','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30.75">
+      <c r="A35" s="46">
+        <v>34</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="D35" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('34','q17', '2.Brown','2.ev`vgx','2','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30.75">
+      <c r="A36" s="46">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q17', '3.Black','3.Kv‡jv','3','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30.75">
+      <c r="A37" s="46">
+        <v>36</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="G37" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q17', '4.Green','4.meyR','4','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30.75">
+      <c r="A38" s="46">
+        <v>37</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E26">
+      <c r="D38" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('37','q17', '5.White/grey','5.mv`v/aymi','5','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45.75">
+      <c r="A39" s="46">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','q17', '6.Other: Specify','6.Ab¨vY¨t wbw`©ó K‡i wjLyb','6','q17_other');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45.75">
+      <c r="A40" s="46">
+        <v>39</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40"/>
+      <c r="G40" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q18', '1.No abnormal characteristics','1.A¯^vfvweK wKQz †`Lv hvqwb','','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45.75">
+      <c r="A41" s="46">
+        <v>40</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41"/>
+      <c r="G41" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q18', '2.Mucus','2.†kø®§v ev K‡di gZ wcQj g‡b n‡q‡Q','','');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45.75">
+      <c r="A42" s="46">
+        <v>41</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42"/>
+      <c r="G42" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q18', '3.Blood','3.gj/cvqLvbvi mv‡_ i³ †`Lv †M‡Q','','');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30.75">
+      <c r="A43" s="46">
+        <v>42</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43"/>
+      <c r="G43" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('42','q18', '4.Worms','4.K„wg †`Lv †M‡Q','','');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45.75">
+      <c r="A44" s="46">
+        <v>43</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q18', '5.Other: Specify','5.Ab¨vY¨t wbw`©ó K‡i wjLyb','','q18_other');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="46">
+        <v>44</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="40">
+        <v>1</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('44','q20', '1 Yes ','1.n¨v','1','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="40">
+        <v>2</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('45','q20', '2 No  ','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45.75">
+      <c r="A47" s="46">
+        <v>46</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="40">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('46','q21', '1.Subject not available','1.D³ e¨w³ Dcw¯’Z wQj bv','1','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45.75">
+      <c r="A48" s="46">
+        <v>47</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="40">
+        <v>2</v>
+      </c>
+      <c r="G48" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('47','q21', '2.Subject not cooperative','2.D³ e¨w³ mn‡hvwMZv K‡iwb','2','');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45.75">
+      <c r="A49" s="46">
+        <v>48</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="40">
         <v>3</v>
       </c>
-      <c r="G26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','q17', '3.Black','3.Kv‡jv','3','');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30.75">
-      <c r="A27" s="51">
-        <v>26</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27">
+      <c r="G49" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('48','q21', '3.Sample not available','3.bgybv cvIqv hvqwb','3','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30.75">
+      <c r="A50" s="46">
+        <v>49</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="40">
         <v>4</v>
       </c>
-      <c r="G27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','q17', '4.Green','4.meyR','4','');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30.75">
-      <c r="A28" s="51">
-        <v>27</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="G28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('27','q17', '5.White/grey','5.mv`v/aymi','5','');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30.75">
-      <c r="A29" s="51">
-        <v>28</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('28','q17', '6.Other: Specify','6.Ab¨vY¨t wbw`©ó K‡i wjLyb','6','q17_other');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30.75">
-      <c r="A30" s="51">
-        <v>29</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30"/>
-      <c r="G30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('29','q18', '1.No abnormal characteristics','1.A¯^vfvweK wKQz †`Lv hvqwb','','');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30.75">
-      <c r="A31" s="51">
-        <v>30</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31"/>
-      <c r="G31" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('30','q18', '2.Mucus','2.†kø®§v ev K‡di gZ wcQj g‡b n‡q‡Q','','');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30.75">
-      <c r="A32" s="51">
-        <v>31</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32"/>
-      <c r="G32" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('31','q18', '3.Blood','3.gj/cvqLvbvi mv‡_ i³ †`Lv †M‡Q','','');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30.75">
-      <c r="A33" s="51">
-        <v>32</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33"/>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('32','q18', '4.Worms','4.K„wg †`Lv †M‡Q','','');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30.75">
-      <c r="A34" s="51">
-        <v>33</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('33','q18', '5.Other: Specify','5.Ab¨vY¨t wbw`©ó K‡i wjLyb','','q18_other');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" s="51">
-        <v>34</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="45">
-        <v>1</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('34','q20', '1 Yes ','1.n¨v','1','');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="51">
-        <v>35</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="45">
-        <v>2</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q20', '2 No  ','2.bv','2','');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30.75">
-      <c r="A37" s="51">
-        <v>36</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="45">
-        <v>1</v>
-      </c>
-      <c r="G37" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q21', '1.Subject not available','1.D³ e¨w³ Dcw¯’Z wQj bv','1','');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30.75">
-      <c r="A38" s="51">
-        <v>37</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="45">
-        <v>2</v>
-      </c>
-      <c r="G38" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('37','q21', '2.Subject not cooperative','2.D³ e¨w³ mn‡hvwMZv K‡iwb','2','');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30.75">
-      <c r="A39" s="51">
-        <v>38</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="45">
-        <v>3</v>
-      </c>
-      <c r="G39" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','q21', '3.Sample not available','3.bgybv cvIqv hvqwb','3','');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30.75">
-      <c r="A40" s="51">
-        <v>39</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="45">
-        <v>4</v>
-      </c>
-      <c r="G40" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q21', '4.Other','4.Ab¨vb¨','4','');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="C41" s="41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="C42" s="41"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="C43" s="41"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="C44" s="41"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="C45" s="41"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="C46" s="41"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="C47" s="41"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="C48" s="41"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="41"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="41"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="3:7">
+      <c r="G50" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q21', '4.Other','4.Ab¨vb¨','4','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="C51" s="41"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="1:7">
       <c r="C52" s="41"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="1:7">
       <c r="C53" s="41"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="1:7">
       <c r="C54" s="41"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="1:7">
       <c r="C55" s="41"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="1:7">
       <c r="C56" s="41"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7">
+    <row r="57" spans="1:7">
       <c r="C57" s="41"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7">
+    <row r="58" spans="1:7">
       <c r="C58" s="41"/>
       <c r="D58"/>
       <c r="E58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7">
+    <row r="59" spans="1:7">
       <c r="C59" s="41"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="1:7">
       <c r="C60" s="41"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7">
+    <row r="61" spans="1:7">
       <c r="C61" s="41"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7">
+    <row r="62" spans="1:7">
       <c r="C62" s="41"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7">
+    <row r="63" spans="1:7">
       <c r="C63" s="41"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7">
+    <row r="64" spans="1:7">
       <c r="C64" s="41"/>
       <c r="D64"/>
       <c r="E64"/>
@@ -17976,6 +18247,66 @@
       <c r="D1243"/>
       <c r="E1243"/>
       <c r="G1243"/>
+    </row>
+    <row r="1244" spans="3:7">
+      <c r="C1244" s="41"/>
+      <c r="D1244"/>
+      <c r="E1244"/>
+      <c r="G1244"/>
+    </row>
+    <row r="1245" spans="3:7">
+      <c r="C1245" s="41"/>
+      <c r="D1245"/>
+      <c r="E1245"/>
+      <c r="G1245"/>
+    </row>
+    <row r="1246" spans="3:7">
+      <c r="C1246" s="41"/>
+      <c r="D1246"/>
+      <c r="E1246"/>
+      <c r="G1246"/>
+    </row>
+    <row r="1247" spans="3:7">
+      <c r="C1247" s="41"/>
+      <c r="D1247"/>
+      <c r="E1247"/>
+      <c r="G1247"/>
+    </row>
+    <row r="1248" spans="3:7">
+      <c r="C1248" s="41"/>
+      <c r="D1248"/>
+      <c r="E1248"/>
+      <c r="G1248"/>
+    </row>
+    <row r="1249" spans="3:7">
+      <c r="C1249" s="41"/>
+      <c r="D1249"/>
+      <c r="E1249"/>
+      <c r="G1249"/>
+    </row>
+    <row r="1250" spans="3:7">
+      <c r="C1250" s="41"/>
+      <c r="D1250"/>
+      <c r="E1250"/>
+      <c r="G1250"/>
+    </row>
+    <row r="1251" spans="3:7">
+      <c r="C1251" s="41"/>
+      <c r="D1251"/>
+      <c r="E1251"/>
+      <c r="G1251"/>
+    </row>
+    <row r="1252" spans="3:7">
+      <c r="C1252" s="41"/>
+      <c r="D1252"/>
+      <c r="E1252"/>
+      <c r="G1252"/>
+    </row>
+    <row r="1253" spans="3:7">
+      <c r="C1253" s="41"/>
+      <c r="D1253"/>
+      <c r="E1253"/>
+      <c r="G1253"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
+++ b/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="191">
   <si>
     <t>SLNo</t>
   </si>
@@ -342,9 +342,6 @@
     <t>16.(ch©‡eÿb Kiæb) cvqLvbvi aib †Kgb?</t>
   </si>
   <si>
-    <t>16.16. (obs) Stool consistency</t>
-  </si>
-  <si>
     <t>1.AmsMwVZ, Zij</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
   </si>
   <si>
     <t>17.(ch©‡eÿb Kiæb) cvqLvbvi eb© wK?</t>
-  </si>
-  <si>
-    <t>17.17. (obs) Stool color</t>
   </si>
   <si>
     <t>q17</t>
@@ -648,6 +642,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>16.(obs) Stool consistency</t>
+  </si>
+  <si>
+    <t>17. (obs) Stool color</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK423"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1753,13 +1753,13 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S2" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V2" s="22" t="str">
         <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
@@ -1798,13 +1798,13 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V3" s="22" t="str">
         <f t="shared" ref="V3:V27" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
@@ -1843,13 +1843,13 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S4" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1888,13 +1888,13 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S5" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1933,13 +1933,13 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S6" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1978,20 +1978,20 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S7" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'q6_2','frmsinglechoice', 'tblMainQues','6.2.D³ LvbvwU bZzb BB wm‡½j Av‡g©i AšÍ©fz³ wK bv? (6.2 Gi DËi 1 n‡j) D³ LvbvwU bZzb BB wm‡½j Av‡g©i AšÍ©fz³Õ wn‡m‡e wb‡`©k Ki‡Z ev †evSv‡Z msMÖnK…Z ÷zj K‡›UBbv‡ii wQwci Dci ZviKv wPý (*) emvb ','6.2 Is this household part of the new single arm EE cohort?  (if 6.2 is 1) Mark the cap of the stool collection containersin this household with * to show that this household is in the single arm EE cohort.','','q7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
-    <row r="8" spans="1:115" ht="90">
+    <row r="8" spans="1:115" ht="105">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -2001,11 +2001,14 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>56</v>
@@ -2020,17 +2023,17 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T8" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V8" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmcombobox', '','7.‡hme e¨w³i KvQ †_‡K GLb bgybv msMÖn Kiv n‡”Q Zv‡`i cÖ‡Z¨‡Ki Avjv`v Avjv`v AvBwW wbev©Pb Kiæb  (GKwU AvBwW wbev©Pb Kiæb)    ','7.Select the ID of the individual whose sample you are collecting now (select one)','','q8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'q7','frmcombobox', 'tblMainQues','7.‡hme e¨w³i KvQ †_‡K GLb bgybv msMÖn Kiv n‡”Q Zv‡`i cÖ‡Z¨‡Ki Avjv`v Avjv`v AvBwW wbev©Pb Kiæb  (GKwU AvBwW wbev©Pb Kiæb)    ','7.Select the ID of the individual whose sample you are collecting now (select one)','','q8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="9" spans="1:115" ht="105">
@@ -2044,7 +2047,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>58</v>
@@ -2065,13 +2068,13 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S9" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2092,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>61</v>
@@ -2110,13 +2113,13 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S10" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T10" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V10" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2134,7 +2137,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>65</v>
@@ -2155,13 +2158,13 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V11" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2179,7 +2182,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>76</v>
@@ -2200,13 +2203,13 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S12" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V12" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2224,7 +2227,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>79</v>
@@ -2245,13 +2248,13 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2269,7 +2272,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>82</v>
@@ -2290,13 +2293,13 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V14" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2317,7 @@
         <v>80</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>90</v>
@@ -2335,13 +2338,13 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2359,7 +2362,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>93</v>
@@ -2380,13 +2383,13 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V16" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2404,16 +2407,16 @@
         <v>51</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -2425,17 +2428,17 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V17" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q16','frmsinglechoice', 'tblMainQuesL','16.(ch©‡eÿb Kiæb) cvqLvbvi aib †Kgb?','16.16. (obs) Stool consistency','','q17','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q16','frmsinglechoice', 'tblMainQuesL','16.(ch©‡eÿb Kiæb) cvqLvbvi aib †Kgb?','16.(obs) Stool consistency','','q17','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="90">
@@ -2443,22 +2446,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2470,17 +2473,17 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V18" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q17','frmsinglechoice', 'tblMainQuesL','17.(ch©‡eÿb Kiæb) cvqLvbvi eb© wK?','17.17. (obs) Stool color','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'q17','frmsinglechoice', 'tblMainQuesL','17.(ch©‡eÿb Kiæb) cvqLvbvi eb© wK?','17. (obs) Stool color','','q18','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="75.75">
@@ -2488,22 +2491,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -2515,13 +2518,13 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V19" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2533,22 +2536,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2560,13 +2563,13 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S20" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V20" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2578,23 +2581,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2606,13 +2609,13 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V21" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2624,22 +2627,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="31" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>151</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2651,13 +2654,13 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S22" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V22" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2675,16 +2678,16 @@
         <v>51</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E23" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>154</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2696,13 +2699,13 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S23" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V23" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2714,22 +2717,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -2741,13 +2744,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S24" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V24" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2759,22 +2762,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E25" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>159</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -2786,13 +2789,13 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S25" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V25" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2804,22 +2807,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="H26" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>162</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -2831,13 +2834,13 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S26" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V26" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2849,19 +2852,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="F27" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27"/>
@@ -2874,13 +2877,13 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V27" s="22" t="str">
         <f t="shared" si="0"/>
@@ -10010,8 +10013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10053,13 +10056,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -10074,13 +10077,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="46">
         <v>1</v>
@@ -10095,13 +10098,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="46">
         <v>1</v>
@@ -10116,13 +10119,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
@@ -10137,13 +10140,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="48">
         <v>1</v>
@@ -10245,10 +10248,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
@@ -10266,10 +10269,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="46">
         <v>1</v>
@@ -10287,10 +10290,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" s="46">
         <v>1</v>
@@ -10308,10 +10311,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="48">
         <v>1</v>
@@ -10329,10 +10332,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="48">
         <v>1</v>
@@ -10680,10 +10683,10 @@
         <v>94</v>
       </c>
       <c r="C31" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10701,10 +10704,10 @@
         <v>94</v>
       </c>
       <c r="C32" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -10722,10 +10725,10 @@
         <v>94</v>
       </c>
       <c r="C33" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -10740,13 +10743,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="D34" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -10761,13 +10764,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>121</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -10782,13 +10785,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -10803,13 +10806,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -10824,13 +10827,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -10845,19 +10848,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>6</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="22" t="str">
         <f t="shared" si="1"/>
@@ -10869,18 +10872,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40"/>
+        <v>135</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
       <c r="G40" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q18', '1.No abnormal characteristics','1.A¯^vfvweK wKQz †`Lv hvqwb','','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q18', '1.No abnormal characteristics','1.A¯^vfvweK wKQz †`Lv hvqwb','1','');</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45.75">
@@ -10888,18 +10893,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41"/>
+        <v>137</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
       <c r="G41" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q18', '2.Mucus','2.†kø®§v ev K‡di gZ wcQj g‡b n‡q‡Q','','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q18', '2.Mucus','2.†kø®§v ev K‡di gZ wcQj g‡b n‡q‡Q','2','');</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45.75">
@@ -10907,18 +10914,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42"/>
+        <v>139</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
       <c r="G42" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q18', '3.Blood','3.gj/cvqLvbvi mv‡_ i³ †`Lv †M‡Q','','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q18', '3.Blood','3.gj/cvqLvbvi mv‡_ i³ †`Lv †M‡Q','3','');</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30.75">
@@ -10926,18 +10935,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43"/>
+        <v>141</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
       <c r="G43" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('42','q18', '4.Worms','4.K„wg †`Lv †M‡Q','','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('42','q18', '4.Worms','4.K„wg †`Lv †M‡Q','4','');</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="45.75">
@@ -10945,21 +10956,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>144</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="G44" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q18', '5.Other: Specify','5.Ab¨vY¨t wbw`©ó K‡i wjLyb','','q18_other');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q18', '5.Other: Specify','5.Ab¨vY¨t wbw`©ó K‡i wjLyb','5','q18_other');</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30">
@@ -11011,7 +11024,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>67</v>
@@ -11032,7 +11045,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>69</v>
@@ -11053,7 +11066,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>71</v>
@@ -11074,7 +11087,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" s="44" t="s">
         <v>74</v>

--- a/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
+++ b/ParasitesEndline/DB and Documents/Specimen Collection- Endline Parasite.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="196">
   <si>
     <t>SLNo</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.1.BB wUg D³ Uv‡M©U wkï (Ges Uv‡M©U wkïi RgR) †_‡K i‡³i bgybv msMÖn K‡i‡Q wK ? (6.1 Gi DËi 1 n‡j) D³ Lvbvi Uv‡M©U wkï Ges Uv‡M©U wkïi RgR †_‡K i‡³i bgybv msMÖn Ki‡Z n‡e bv) </t>
+  </si>
+  <si>
+    <t>frmmessage</t>
   </si>
 </sst>
 </file>
@@ -1558,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2644,7 +2647,7 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>171</v>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="V22" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q19','frmtext', 'tblMainQuesL','19.wbwðZ Kiæb †h cvqLvbvi bgybv cixÿv Kivi Rb¨ Avcwb K¨v‡Uv-K¨vUR GwjKU ˆZix K‡i‡Qb Ges K¨v‡Uv-K¨vUR GwjK‡Ui Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q| ','19.Make sure that you have prepared a Kato-Katz aliquot for this individual and make sure that the sample ID and random ID of the barcode on the Kato-Katz aliquot match the following:','','q21','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q19','frmmessage', 'tblMainQuesL','19.wbwðZ Kiæb †h cvqLvbvi bgybv cixÿv Kivi Rb¨ Avcwb K¨v‡Uv-K¨vUR GwjKU ˆZix K‡i‡Qb Ges K¨v‡Uv-K¨vUR GwjK‡Ui Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q| ','19.Make sure that you have prepared a Kato-Katz aliquot for this individual and make sure that the sample ID and random ID of the barcode on the Kato-Katz aliquot match the following:','','q21','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="90">
@@ -2779,7 +2782,7 @@
         <v>142</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>171</v>
@@ -2813,7 +2816,7 @@
       </c>
       <c r="V25" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q22','frmtext', 'tblMainQuesL','22.wbwðZ Kiæb eøvW ¯úU wdëvi †ccv‡ii Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q|','22.Make sure that the sample ID and random ID of the barcode on the blood spot filter paper match the following:','','q23','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q22','frmmessage', 'tblMainQuesL','22.wbwðZ Kiæb eøvW ¯úU wdëvi †ccv‡ii Mv‡q jvMv‡bv evi‡Kv‡Wi m¨v¤új AvBwW I †ibWg AvBwW mv‡_ wb‡b¥v³ m¨v¤új AvBwW I ‡ibWg AvBwW ûeû wgj Av‡Q|','22.Make sure that the sample ID and random ID of the barcode on the blood spot filter paper match the following:','','q23','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="105">
